--- a/static_data/measures/measures.xlsx
+++ b/static_data/measures/measures.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidscherer/Documents/bachelorThesis/projects2021-bsc-thesis-scherer/static_data/measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AE6BD2-3F5F-7343-9784-F8999CD4D732}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F0CB96-FC95-2B47-AF81-CC9F5C9B5194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{FFCC8704-597E-174B-A1F8-5E383467AE14}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="7" activeTab="21" xr2:uid="{FFCC8704-597E-174B-A1F8-5E383467AE14}"/>
   </bookViews>
   <sheets>
     <sheet name="Federal" sheetId="1" r:id="rId1"/>
     <sheet name="AR" sheetId="4" r:id="rId2"/>
-    <sheet name="AG" sheetId="2" r:id="rId3"/>
-    <sheet name="AI" sheetId="3" r:id="rId4"/>
+    <sheet name="AI" sheetId="3" r:id="rId3"/>
+    <sheet name="AG" sheetId="2" r:id="rId4"/>
     <sheet name="BE" sheetId="5" r:id="rId5"/>
     <sheet name="BS" sheetId="7" r:id="rId6"/>
     <sheet name="BL" sheetId="6" r:id="rId7"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="76">
   <si>
     <t>Category 1</t>
   </si>
@@ -170,12 +170,6 @@
     <t>no penalties</t>
   </si>
   <si>
-    <t>penalties based only on epedemic law</t>
-  </si>
-  <si>
-    <t>even fines are possible</t>
-  </si>
-  <si>
     <t>Shops/Markets</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>Ban for gatherings with more than 10 people</t>
   </si>
   <si>
-    <t>Cultural, entertainment and recreational facilities </t>
-  </si>
-  <si>
     <t>some at low risk categorized facilities are open (e.g. museums, libraries etc.)</t>
   </si>
   <si>
@@ -227,21 +218,6 @@
     <t>Penalties</t>
   </si>
   <si>
-    <t>Relgious services</t>
-  </si>
-  <si>
-    <t>Mandatory 1.5m distance</t>
-  </si>
-  <si>
-    <t>not mandatory</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>Signature collecting allowed</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -257,222 +233,59 @@
     <t>ban for all people</t>
   </si>
   <si>
-    <t>Protection of vulnerarble people at work</t>
-  </si>
-  <si>
-    <t>with protection concept</t>
-  </si>
-  <si>
-    <t>strong proctection (even right to work from home is possible)</t>
-  </si>
-  <si>
     <t>no restrictions (with physical contact)</t>
   </si>
   <si>
     <t>sport activities possible with no physical contact</t>
   </si>
   <si>
-    <t>sport activities not possible</t>
-  </si>
-  <si>
-    <t>in at least one</t>
-  </si>
-  <si>
-    <t>in all categories</t>
-  </si>
-  <si>
-    <t>Mask mandatory in public transport, aircrafts, public transport waiting and access areas</t>
-  </si>
-  <si>
     <t>Masks mandatory in schools</t>
   </si>
   <si>
     <t>Masks mandatory at work</t>
   </si>
   <si>
-    <t>indoor if more than one person is in the room</t>
-  </si>
-  <si>
-    <t>if distance can't be kept</t>
-  </si>
-  <si>
-    <t>upper secondary schools</t>
-  </si>
-  <si>
-    <t>22.02.2021 </t>
-  </si>
-  <si>
-    <t>25.01.2021 </t>
-  </si>
-  <si>
-    <t>20.12.2020 </t>
-  </si>
-  <si>
-    <t>30.12.2020 </t>
-  </si>
-  <si>
-    <t>22.12.2020 </t>
-  </si>
-  <si>
-    <t>13.12.2020 </t>
-  </si>
-  <si>
-    <t>10.02.2021 </t>
-  </si>
-  <si>
-    <t>21.01.2021 </t>
-  </si>
-  <si>
-    <t>01.03.2021 </t>
-  </si>
-  <si>
-    <t>12.12.2020 </t>
-  </si>
-  <si>
-    <t>12.10.2020 </t>
-  </si>
-  <si>
-    <t>19.10.2020 </t>
-  </si>
-  <si>
-    <t>24.10.2020 </t>
-  </si>
-  <si>
-    <t>11.12.2020 </t>
-  </si>
-  <si>
-    <t>20.01.2021 </t>
-  </si>
-  <si>
-    <t>Mask mandatory in publicly accessible establishments or spaces</t>
-  </si>
-  <si>
-    <t>Mask mandatory in publicly accessible establishments or spaces (shops etc.)</t>
-  </si>
-  <si>
-    <t>24.08.2020 </t>
-  </si>
-  <si>
-    <t>04.11.2020 </t>
-  </si>
-  <si>
-    <t>23.11.2020 </t>
-  </si>
-  <si>
-    <t>09.12.2020 </t>
-  </si>
-  <si>
-    <t>23.01.2021 </t>
-  </si>
-  <si>
-    <t>15.12.2020 </t>
-  </si>
-  <si>
-    <t>23.12.2020 </t>
-  </si>
-  <si>
-    <t>01.01.2021 </t>
-  </si>
-  <si>
-    <t>25.12.2020 </t>
-  </si>
-  <si>
-    <t>Ski Areas</t>
-  </si>
-  <si>
-    <t>26.10.2020 </t>
-  </si>
-  <si>
-    <t>29.12.2020 </t>
-  </si>
-  <si>
-    <t>31.10.2020 </t>
-  </si>
-  <si>
-    <t>31.12.2020 </t>
-  </si>
-  <si>
-    <t>02.11.2020 </t>
-  </si>
-  <si>
-    <t>02.01.2021 </t>
-  </si>
-  <si>
-    <t>in primary school (above 5. class)</t>
-  </si>
-  <si>
-    <t>27.10.2020 </t>
-  </si>
-  <si>
-    <t>04.12.2020 </t>
-  </si>
-  <si>
-    <t>27.08.2020 </t>
-  </si>
-  <si>
     <t>restrictions at private events</t>
   </si>
   <si>
-    <t>15.10.2020 </t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>09.01.2021 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>25.01.2021 </t>
-    </r>
-  </si>
-  <si>
     <t>closed (but some exceptions for funerals)</t>
   </si>
   <si>
-    <t>28.10.2020 </t>
-  </si>
-  <si>
-    <t>09.11.2020 </t>
-  </si>
-  <si>
-    <t>21.10.2020 </t>
-  </si>
-  <si>
-    <t>01.11.2020 </t>
-  </si>
-  <si>
-    <t>28.11.2020 </t>
-  </si>
-  <si>
     <t>Homeworking</t>
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Mountain railways</t>
+  </si>
+  <si>
+    <t>fines are possible (e.g. gathering in large groups or not wearing masks when it is mandatory)</t>
+  </si>
+  <si>
+    <t>penalties based only on epedemic law (e.g. quarantine or isolation violation, business does not close, etc.)</t>
+  </si>
+  <si>
+    <t>Mask mandatory in public transport</t>
+  </si>
+  <si>
+    <t>Mask mandatory in publicly accessible establishments/ spaces (shops etc.)</t>
+  </si>
+  <si>
+    <t>sport activities only very restricted possible</t>
+  </si>
+  <si>
+    <t>Cultural, entertainment and recreational facilities</t>
+  </si>
+  <si>
+    <t>Religious services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,20 +314,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -536,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,10 +348,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -869,37 +664,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2815F66-F6B3-F149-9CCF-3256E846D1C0}">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA8" sqref="AA8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="6" width="26.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" customWidth="1"/>
-    <col min="12" max="12" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="7" width="26.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
     <col min="13" max="13" width="28.83203125" customWidth="1"/>
-    <col min="14" max="17" width="26.1640625" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="15" max="17" width="26.1640625" customWidth="1"/>
     <col min="18" max="18" width="30" customWidth="1"/>
     <col min="19" max="19" width="24.6640625" customWidth="1"/>
     <col min="20" max="20" width="20.5" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
-    <col min="22" max="23" width="15.6640625" customWidth="1"/>
-    <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.1640625" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>30</v>
@@ -908,83 +704,74 @@
         <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-    </row>
-    <row r="2" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+    </row>
+    <row r="2" spans="1:30" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -995,10 +782,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>18</v>
@@ -1010,34 +797,34 @@
         <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>18</v>
@@ -1046,32 +833,23 @@
         <v>18</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-    </row>
-    <row r="3" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:30" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1082,10 +860,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
@@ -1097,34 +875,34 @@
         <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>19</v>
@@ -1133,32 +911,23 @@
         <v>19</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:30" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1169,77 +938,66 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="N4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>73</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W4" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1250,29 +1008,29 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="M5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1293,11 +1051,8 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:30" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1308,9 +1063,11 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1319,11 +1076,9 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1337,18 +1092,17 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:30" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1357,9 +1111,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="N7" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1376,12 +1128,9 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>43831</v>
       </c>
       <c r="B8">
@@ -1450,24 +1199,15 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43889</v>
       </c>
@@ -1475,41 +1215,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43872</v>
+        <v>43901</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43903</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -1519,24 +1259,24 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
       <c r="S12">
         <v>3</v>
       </c>
@@ -1549,22 +1289,16 @@
       <c r="V12">
         <v>2</v>
       </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43910</v>
       </c>
-      <c r="N13">
+      <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43948</v>
       </c>
@@ -1572,20 +1306,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43962</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
       <c r="M15">
@@ -1601,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43979</v>
       </c>
@@ -1609,15 +1343,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43983</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43988</v>
       </c>
@@ -1625,25 +1356,28 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
-      <c r="N18">
+      <c r="L18">
         <v>2</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43997</v>
       </c>
@@ -1651,38 +1385,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44002</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44004</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="N21">
-        <v>0</v>
+      <c r="L21">
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44018</v>
       </c>
@@ -1690,12 +1427,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44058</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44105</v>
       </c>
@@ -1703,62 +1440,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44123</v>
       </c>
-      <c r="I25">
+      <c r="D25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
-      <c r="N25">
-        <v>1</v>
+      <c r="L25">
+        <v>2</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44132</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="N26">
+      <c r="D26">
         <v>4</v>
       </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
       <c r="U26">
         <v>2</v>
       </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44174</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="Y27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="W27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44177</v>
       </c>
@@ -1769,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44186</v>
       </c>
@@ -1777,11 +1511,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44187</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3</v>
       </c>
       <c r="S30">
@@ -1791,69 +1525,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44193</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44205</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44214</v>
       </c>
-      <c r="I33">
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="J33">
         <v>2</v>
       </c>
       <c r="M33">
         <v>4</v>
       </c>
-      <c r="N33">
-        <v>5</v>
-      </c>
       <c r="R33">
-        <v>2</v>
-      </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44228</v>
       </c>
-      <c r="L34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44235</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44224</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44256</v>
       </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
       <c r="M37">
         <v>1</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
       </c>
       <c r="S37">
         <v>2</v>
@@ -1869,66 +1600,74 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE46A1E-E335-AA4E-8B29-061665034C7A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44180</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44187</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44195</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44197</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>44214</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1938,43 +1677,40 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D104D6-47D4-6640-B0D9-EB9B83BE03AF}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>127</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44136</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1986,65 +1722,81 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44156</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44163</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44175</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44187</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>44188</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>44199</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>44156</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>44175</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>44188</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>44199</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>44214</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2054,17 +1806,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5FEA6A-A91E-E64B-90AB-E3E58C34BF39}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>33</v>
@@ -2073,21 +1828,18 @@
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>113</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44137</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2099,38 +1851,57 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>44175</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>44182</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="H4">
-        <v>2</v>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>44187</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>44214</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2140,84 +1911,94 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5ACD33-AFF8-1E44-9378-376A45A06FB9}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44128</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>109</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44130</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44177</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44187</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>44194</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>44214</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2227,39 +2008,42 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A77A343-D323-084D-996D-BC0CF1EBC77D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>113</v>
+      <c r="A2" s="9">
+        <v>44137</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>100</v>
+      <c r="A3" s="9">
+        <v>44139</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2269,6 +2053,25 @@
       </c>
       <c r="E3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>44191</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>44214</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2278,51 +2081,47 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14851C26-34E1-2543-9BEF-AD8125C6EBF6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
-        <v>108</v>
+    <row r="1" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>100</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44139</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>86</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44187</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>85</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44195</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2335,41 +2134,47 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
-        <v>108</v>
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>86</v>
+      <c r="A2" s="9">
+        <v>44187</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>107</v>
+      <c r="A3" s="9">
+        <v>44190</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>85</v>
+      <c r="A4" s="9">
+        <v>44195</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2379,26 +2184,35 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EA28F1-FAF8-2A44-86A0-D56657B177FC}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>116</v>
+      <c r="A2" s="9">
+        <v>44131</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2407,56 +2221,61 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FE1136-73BB-B143-A941-D55263EE55C5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>113</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44137</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44187</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44198</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>44214</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2466,65 +2285,67 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41856727-B693-D649-9297-FF09DB51B56A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>111</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44135</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44178</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44187</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44196</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>44214</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2533,45 +2354,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11DDCE9-E7DA-F642-97E2-62648F2D3BBB}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="16" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>44187</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44195</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2581,42 +2393,45 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4A039D-7805-B845-A21C-E4E4CA25D8BA}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>44176</v>
       </c>
       <c r="B2">
@@ -2625,38 +2440,57 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44187</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44188</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>44192</v>
       </c>
-      <c r="F4">
+      <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44214</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>44221</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2666,66 +2500,35 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E72157D-1442-3B49-B7FE-41EB69A7A737}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
     </row>
   </sheetData>
@@ -2735,23 +2538,29 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6C0E28-DB57-AA40-B521-7AACE6021AFB}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>28</v>
@@ -2760,26 +2569,17 @@
         <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>43901</v>
       </c>
       <c r="B2">
@@ -2798,88 +2598,126 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>43903</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>43906</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>44015</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>44031</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>44132</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>44144</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>44174</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>44187</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>44197</v>
       </c>
-      <c r="H9">
+      <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="7"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>44205</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>44214</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2888,44 +2726,41 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777A960A-C3B4-3A4D-A22F-885D91987738}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>44141</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>44187</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>44195</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2935,20 +2770,27 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184CB44F-752E-7549-AF2B-2B95319A861B}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>24</v>
@@ -2957,21 +2799,21 @@
         <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>126</v>
+      <c r="A2" s="9">
+        <v>44125</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2987,15 +2829,58 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
+        <v>44132</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>44141</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44167</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44191</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>44193</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>44214</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3004,46 +2889,37 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8611AF-BA95-DE42-9105-EA0CBBDC01D3}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="21.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>100</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44139</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3060,34 +2936,25 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>44183</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>44199</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>44175</v>
       </c>
       <c r="B5">
@@ -3097,20 +2964,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>44549</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>44191</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>44214</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -3120,17 +3004,23 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8DD3CA-9D25-2142-A62A-20852C5EAFEA}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
@@ -3139,21 +3029,21 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>118</v>
+      <c r="A2" s="9">
+        <v>44070</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3166,54 +3056,81 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>120</v>
+      <c r="A3" s="9">
+        <v>44119</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="A4" s="9">
+        <v>44123</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
+        <v>44132</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44137</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>44175</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>44177</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>44187</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>44205</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>44214</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -3226,41 +3143,44 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>86</v>
+      <c r="A2" s="9">
+        <v>44187</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>85</v>
+      <c r="A3" s="9">
+        <v>44195</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>82</v>
+      <c r="A4" s="9">
+        <v>44249</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3269,54 +3189,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C0723C-CED1-EC4D-81CE-655E660DA5EA}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446E4EA1-C2C5-F248-96B6-29387CF9589C}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>82</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44187</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44195</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -3325,34 +3228,72 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446E4EA1-C2C5-F248-96B6-29387CF9589C}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C0723C-CED1-EC4D-81CE-655E660DA5EA}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44185</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44214</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44221</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44249</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3362,108 +3303,112 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67B2537-1365-A045-8385-25168943387A}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>92</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44116</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44123</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44128</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44132</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>88</v>
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44237</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3472,40 +3417,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2AEBFC-FF4C-BF47-B02F-50E7F49289C8}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>99</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44067</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3514,29 +3459,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>44123</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44139</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44158</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>44187</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -3546,60 +3513,61 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0F800-FC8E-AC4A-BC04-2E7448D2983F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>95</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44176</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44177</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>44187</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44216</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3609,49 +3577,46 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47629C0-DBD3-404D-B19F-291124CE823C}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44139</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -3660,32 +3625,53 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44174</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>44175</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>44187</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>44191</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>44215</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -3695,34 +3681,34 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A178C5-673E-AE49-9CAB-9685869B56E6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>117</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44169</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -3730,11 +3716,22 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>44187</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
     </row>
   </sheetData>

--- a/static_data/measures/measures.xlsx
+++ b/static_data/measures/measures.xlsx
@@ -379,7 +379,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,15 +424,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
@@ -452,6 +452,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="24.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -524,15 +525,8 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
@@ -602,15 +596,8 @@
       <c r="W2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>34</v>
       </c>
@@ -680,13 +667,6 @@
       <c r="W3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -750,15 +730,8 @@
       <c r="W4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
@@ -805,15 +778,8 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
@@ -846,15 +812,8 @@
       <c r="R6" s="3"/>
       <c r="U6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
@@ -882,15 +841,8 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>43831</v>
       </c>
@@ -960,15 +912,8 @@
       <c r="W8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>43889</v>
       </c>
@@ -976,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>43901</v>
       </c>
@@ -984,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>43903</v>
       </c>
@@ -1010,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>43906</v>
       </c>
@@ -1051,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>43910</v>
       </c>
@@ -1059,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>43948</v>
       </c>
@@ -1067,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>43962</v>
       </c>
@@ -1096,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>43979</v>
       </c>
@@ -1104,12 +1049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>43983</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>43988</v>
       </c>
@@ -1138,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>43997</v>
       </c>
@@ -1146,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>44002</v>
       </c>
@@ -1157,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>44004</v>
       </c>
@@ -1180,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>44018</v>
       </c>
@@ -1188,12 +1133,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>44058</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>44105</v>
       </c>
@@ -1201,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>44123</v>
       </c>
@@ -1221,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>44132</v>
       </c>
@@ -1241,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>44174</v>
       </c>
@@ -1253,7 +1198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>44177</v>
       </c>
@@ -1264,7 +1209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>44186</v>
       </c>
@@ -1272,7 +1217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>44187</v>
       </c>
@@ -1286,7 +1231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>44193</v>
       </c>
@@ -1297,12 +1242,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>44205</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>44214</v>
       </c>
@@ -1319,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>44228</v>
       </c>
@@ -1327,17 +1272,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>44235</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>44224</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>44256</v>
       </c>
@@ -1376,7 +1321,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.83"/>
   </cols>
@@ -1462,7 +1407,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1600,7 +1545,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1714,7 +1659,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1820,7 +1765,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1902,7 +1847,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1961,7 +1906,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2023,7 +1968,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2069,7 +2014,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2142,7 +2087,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2220,7 +2165,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2268,7 +2213,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
   </cols>
@@ -2384,7 +2329,7 @@
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2431,7 +2376,7 @@
       <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.5"/>
   </cols>
@@ -2628,7 +2573,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2681,7 +2626,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
@@ -2809,7 +2754,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2933,7 +2878,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
   </cols>
@@ -3078,7 +3023,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3137,7 +3082,7 @@
       <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3185,7 +3130,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
@@ -3275,7 +3220,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.66"/>
   </cols>
@@ -3398,7 +3343,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.83"/>
   </cols>
@@ -3503,7 +3448,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3576,7 +3521,7 @@
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3689,7 +3634,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/static_data/measures/measures.xlsx
+++ b/static_data/measures/measures.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -69,211 +69,214 @@
     <t xml:space="preserve">Upper secondary school, vocational schools and higher education</t>
   </si>
   <si>
+    <t xml:space="preserve">universities and other educational establishments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain railways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homeworking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discos/Nightclubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shops/Markets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mask mandatory in publicly accessible establishments/ spaces (shops etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mask mandatory in public transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masks mandatory in schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masks mandatory at work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultural, entertainment and recreational facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport/Wellness facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religious services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singing allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category 0 (default at start)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open with no restrictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no people limit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no restrictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no people limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as usual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no penalties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no restrictions (with physical contact)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open with some restrictions (quarantine from risk area, PCR test, contact data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban for events with more than 1000 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restrictions at private events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no people limit but wear a mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open with protection concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open with protection concept (including capacity restriction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penalties based only on epedemic law (e.g. quarantine or isolation violation, business does not close, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sport activities possible with no physical contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban for professionals and amateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border closed to at least one none direct border sharing country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban for events with more than 300 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ban for gatherings with more than 30 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban for demonstrations with more than 1000 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed but exams are possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compulsory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open with protection concept and other restrictions (time, max people, max group size, seated consumption)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open but time limitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fines are possible (e.g. gathering in large groups or not wearing masks when it is mandatory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some at low risk categorized facilities are open (e.g. museums, libraries etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdoor open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sport activities only very restricted possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed (but some exceptions for funerals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban for all people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border closed to one country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban for events with more than 100 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ban for gatherings with more than 15 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban for demonstrations with more than 300 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some as low risk categorized shops are open (like car washes, DIY, hairdresser)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border closed to all bordering countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban on events with more than 50 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ban for gatherings with more than 10 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban for demonstrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed (except day-to-day necesities)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete ban of events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ban for gatherings with more than 5 people</t>
+  </si>
+  <si>
     <t xml:space="preserve">universities and other educational establishments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountain railways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homeworking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discos/Nightclubs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shops/Markets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penalties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mask mandatory in publicly accessible establishments/ spaces (shops etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mask mandatory in public transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masks mandatory in schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masks mandatory at work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cultural, entertainment and recreational facilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport/Wellness facilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Religious services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singing allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category 0 (default at start)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open with no restrictions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no people limit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no restrictions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no people limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as usual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no penalties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no restrictions (with physical contact)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open with some restrictions (quarantine from risk area, PCR test, contact data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ban for events with more than 1000 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restrictions at private events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no people limit but wear a mask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open with protection concept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recommendation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open with protection concept (including capacity restriction)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penalties based only on epedemic law (e.g. quarantine or isolation violation, business does not close, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sport activities possible with no physical contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ban for professionals and amateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Border closed to at least one none direct border sharing country </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ban for events with more than 300 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ban for gatherings with more than 30 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ban for demonstrations with more than 1000 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closed but exams are possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compulsory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open with protection concept and other restrictions (time, max people, max group size, seated consumption)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open but time limitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fines are possible (e.g. gathering in large groups or not wearing masks when it is mandatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some at low risk categorized facilities are open (e.g. museums, libraries etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoor open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sport activities only very restricted possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closed (but some exceptions for funerals)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ban for all people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Border closed to one country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ban for events with more than 100 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ban for gatherings with more than 15 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ban for demonstrations with more than 300 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some as low risk categorized shops are open (like car washes, DIY, hairdresser)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Border closed to all bordering countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ban on events with more than 50 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ban for gatherings with more than 10 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ban for demonstrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closed (except day-to-day necesities)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complete ban of events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ban for gatherings with more than 5 people</t>
   </si>
 </sst>
 </file>
@@ -427,12 +430,12 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="topRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
@@ -1321,7 +1324,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.83"/>
   </cols>
@@ -1407,7 +1410,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1545,7 +1548,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1659,7 +1662,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1765,7 +1768,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1847,7 +1850,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1906,7 +1909,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1968,7 +1971,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2014,7 +2017,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2087,7 +2090,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2165,7 +2168,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2213,7 +2216,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
   </cols>
@@ -2329,7 +2332,7 @@
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2376,7 +2379,7 @@
       <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.5"/>
   </cols>
@@ -2398,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2573,7 +2576,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2626,7 +2629,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
@@ -2646,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2754,7 +2757,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2878,7 +2881,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
   </cols>
@@ -3023,7 +3026,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3082,7 +3085,7 @@
       <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3130,7 +3133,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
@@ -3220,7 +3223,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.66"/>
   </cols>
@@ -3343,7 +3346,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.83"/>
   </cols>
@@ -3448,7 +3451,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3521,7 +3524,7 @@
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3634,7 +3637,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/static_data/measures/measures.xlsx
+++ b/static_data/measures/measures.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="76">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ban for gatherings with more than 5 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">universities and other educational establishments </t>
   </si>
 </sst>
 </file>
@@ -432,10 +429,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
@@ -1324,7 +1321,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.83"/>
   </cols>
@@ -1410,7 +1407,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1548,7 +1545,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1662,7 +1659,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1768,7 +1765,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1850,7 +1847,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1909,7 +1906,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1971,7 +1968,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2017,7 +2014,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2090,7 +2087,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2168,7 +2165,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2216,7 +2213,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
   </cols>
@@ -2332,7 +2329,7 @@
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2376,15 +2373,15 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2576,7 +2573,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2626,16 +2623,16 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2649,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2757,7 +2754,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2881,7 +2878,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
   </cols>
@@ -3026,7 +3023,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3085,7 +3082,7 @@
       <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3130,10 +3127,10 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
@@ -3223,7 +3220,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.66"/>
   </cols>
@@ -3346,7 +3343,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.83"/>
   </cols>
@@ -3451,7 +3448,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3524,7 +3521,7 @@
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3637,7 +3634,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/static_data/measures/measures.xlsx
+++ b/static_data/measures/measures.xlsx
@@ -426,13 +426,13 @@
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B5" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topRight" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
-        <v>44256</v>
+        <v>44277</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>1</v>
@@ -1321,7 +1321,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.83"/>
   </cols>
@@ -1407,7 +1407,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1545,7 +1545,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1659,7 +1659,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1765,7 +1765,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1847,7 +1847,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1906,7 +1906,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1968,7 +1968,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2014,7 +2014,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2087,7 +2087,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2165,7 +2165,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2213,7 +2213,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
   </cols>
@@ -2329,7 +2329,7 @@
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2376,7 +2376,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.5"/>
   </cols>
@@ -2573,7 +2573,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2626,7 +2626,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
@@ -2754,7 +2754,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2878,7 +2878,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
   </cols>
@@ -3023,7 +3023,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3082,7 +3082,7 @@
       <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3130,7 +3130,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
@@ -3220,7 +3220,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.66"/>
   </cols>
@@ -3343,7 +3343,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.83"/>
   </cols>
@@ -3448,7 +3448,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3521,7 +3521,7 @@
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3634,7 +3634,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/static_data/measures/measures.xlsx
+++ b/static_data/measures/measures.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -69,7 +69,7 @@
     <t xml:space="preserve">Upper secondary school, vocational schools and higher education</t>
   </si>
   <si>
-    <t xml:space="preserve">universities and other educational establishments</t>
+    <t xml:space="preserve">Universities and other educational establishments</t>
   </si>
   <si>
     <t xml:space="preserve">Mountain railways</t>
@@ -180,13 +180,13 @@
     <t xml:space="preserve">sport activities possible with no physical contact</t>
   </si>
   <si>
-    <t xml:space="preserve">ban for professionals and amateur</t>
+    <t xml:space="preserve">ban for some people (professionals, amateur, adults)</t>
   </si>
   <si>
     <t xml:space="preserve">Category 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Border closed to at least one none direct border sharing country </t>
+    <t xml:space="preserve">Borders closed to one direct neighbor country</t>
   </si>
   <si>
     <t xml:space="preserve">ban for events with more than 300 people</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">Category 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Border closed to one country</t>
+    <t xml:space="preserve">Borders closed to all direct neighbor countries</t>
   </si>
   <si>
     <t xml:space="preserve">ban for events with more than 100 people</t>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t xml:space="preserve">Category 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Border closed to all bordering countries</t>
   </si>
   <si>
     <t xml:space="preserve">ban on events with more than 50 people</t>
@@ -424,15 +421,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B5" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="topRight" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
@@ -779,21 +776,18 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -803,7 +797,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -815,13 +809,13 @@
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1088,7 +1082,7 @@
         <v>43997</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,9 +1207,6 @@
       <c r="A29" s="5" t="n">
         <v>44186</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
@@ -1235,11 +1226,8 @@
       <c r="A31" s="5" t="n">
         <v>44193</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="H31" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,19 +1272,53 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
+        <v>44256</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
         <v>44277</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D38" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T37" s="0" t="n">
-        <v>2</v>
+      <c r="M38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>44305</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1317,16 +1339,16 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="117.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,11 +1425,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1541,11 +1563,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1655,11 +1677,11 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1761,11 +1783,11 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1843,11 +1865,11 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1902,11 +1924,11 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1964,11 +1986,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2010,11 +2032,11 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2083,11 +2105,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2161,11 +2183,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2209,11 +2231,11 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
   </cols>
@@ -2325,11 +2347,11 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2372,11 +2394,11 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.5"/>
   </cols>
@@ -2569,11 +2591,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2622,11 +2644,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
@@ -2750,11 +2772,11 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2874,16 +2896,16 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="128.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3019,11 +3041,11 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3078,11 +3100,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3126,16 +3148,16 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="127.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3216,11 +3238,11 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.66"/>
   </cols>
@@ -3339,11 +3361,11 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.83"/>
   </cols>
@@ -3444,11 +3466,11 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3517,11 +3539,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3630,11 +3652,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/static_data/measures/measures.xlsx
+++ b/static_data/measures/measures.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t xml:space="preserve">Category 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borders closed to all direct neighbor countries</t>
   </si>
   <si>
     <t xml:space="preserve">ban for events with more than 100 people</t>
@@ -421,15 +418,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B8" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topRight" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
@@ -732,17 +729,17 @@
       <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>50</v>
@@ -759,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -778,16 +775,16 @@
     </row>
     <row r="6" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -797,7 +794,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -809,13 +806,13 @@
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1320,6 +1317,23 @@
       <c r="U39" s="0" t="n">
         <v>1</v>
       </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>44347</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1343,7 +1357,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.83"/>
   </cols>
@@ -1429,7 +1443,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1567,7 +1581,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1681,7 +1695,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1787,7 +1801,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1869,7 +1883,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1928,7 +1942,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1990,7 +2004,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2036,7 +2050,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2109,7 +2123,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2187,7 +2201,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2235,7 +2249,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
   </cols>
@@ -2351,7 +2365,7 @@
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2398,7 +2412,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.5"/>
   </cols>
@@ -2595,7 +2609,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2648,7 +2662,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
@@ -2776,7 +2790,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2894,13 +2908,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
   </cols>
@@ -3020,6 +3034,14 @@
         <v>44214</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>44202</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3042,10 +3064,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3104,7 +3126,7 @@
       <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3152,7 +3174,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
@@ -3242,7 +3264,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.66"/>
   </cols>
@@ -3362,10 +3384,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.83"/>
   </cols>
@@ -3470,7 +3492,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3543,7 +3565,7 @@
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3656,7 +3678,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
